--- a/data_year/zb/运输和邮电/沿海规模以上港口分货类吞吐量/出港量.xlsx
+++ b/data_year/zb/运输和邮电/沿海规模以上港口分货类吞吐量/出港量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,967 +503,553 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61590</v>
+        <v>237778</v>
       </c>
       <c r="C2" t="n">
-        <v>16943</v>
+        <v>100025</v>
       </c>
       <c r="D2" t="n">
-        <v>514</v>
+        <v>1344</v>
       </c>
       <c r="E2" t="n">
-        <v>457</v>
+        <v>671</v>
       </c>
       <c r="F2" t="n">
-        <v>472</v>
+        <v>849</v>
       </c>
       <c r="G2" t="n">
-        <v>20641</v>
+        <v>63856</v>
       </c>
       <c r="H2" t="n">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>9261</v>
+        <v>20958</v>
       </c>
       <c r="J2" t="n">
-        <v>2844</v>
+        <v>11555</v>
       </c>
       <c r="K2" t="n">
-        <v>2929</v>
+        <v>4036</v>
       </c>
       <c r="L2" t="n">
-        <v>3158</v>
+        <v>18621</v>
       </c>
       <c r="M2" t="n">
-        <v>2397</v>
+        <v>12689</v>
       </c>
       <c r="N2" t="n">
-        <v>1721</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69194</v>
+        <v>270162</v>
       </c>
       <c r="C3" t="n">
-        <v>19918</v>
+        <v>115524</v>
       </c>
       <c r="D3" t="n">
-        <v>541</v>
+        <v>1281</v>
       </c>
       <c r="E3" t="n">
-        <v>419</v>
+        <v>661</v>
       </c>
       <c r="F3" t="n">
-        <v>430</v>
+        <v>1242</v>
       </c>
       <c r="G3" t="n">
-        <v>24136</v>
+        <v>75729</v>
       </c>
       <c r="H3" t="n">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="I3" t="n">
-        <v>10111</v>
+        <v>21200</v>
       </c>
       <c r="J3" t="n">
-        <v>3820</v>
+        <v>13724</v>
       </c>
       <c r="K3" t="n">
-        <v>2308</v>
+        <v>4258</v>
       </c>
       <c r="L3" t="n">
-        <v>3563</v>
+        <v>19508</v>
       </c>
       <c r="M3" t="n">
-        <v>2013</v>
+        <v>13647</v>
       </c>
       <c r="N3" t="n">
-        <v>1687</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79736</v>
+        <v>284076</v>
       </c>
       <c r="C4" t="n">
-        <v>25524</v>
+        <v>126752</v>
       </c>
       <c r="D4" t="n">
-        <v>610</v>
+        <v>1486</v>
       </c>
       <c r="E4" t="n">
-        <v>412</v>
+        <v>651</v>
       </c>
       <c r="F4" t="n">
-        <v>406</v>
+        <v>1182</v>
       </c>
       <c r="G4" t="n">
-        <v>25063</v>
+        <v>74300</v>
       </c>
       <c r="H4" t="n">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="I4" t="n">
-        <v>10584</v>
+        <v>19652</v>
       </c>
       <c r="J4" t="n">
-        <v>5109</v>
+        <v>16375</v>
       </c>
       <c r="K4" t="n">
-        <v>2966</v>
+        <v>4710</v>
       </c>
       <c r="L4" t="n">
-        <v>4283</v>
+        <v>21176</v>
       </c>
       <c r="M4" t="n">
-        <v>2514</v>
+        <v>14428</v>
       </c>
       <c r="N4" t="n">
-        <v>2023</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96344</v>
+        <v>311987</v>
       </c>
       <c r="C5" t="n">
-        <v>31018</v>
+        <v>138312</v>
       </c>
       <c r="D5" t="n">
-        <v>748</v>
+        <v>1561</v>
       </c>
       <c r="E5" t="n">
-        <v>440</v>
+        <v>642</v>
       </c>
       <c r="F5" t="n">
-        <v>560</v>
+        <v>1571</v>
       </c>
       <c r="G5" t="n">
-        <v>30477</v>
+        <v>81341</v>
       </c>
       <c r="H5" t="n">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c r="I5" t="n">
-        <v>12125</v>
+        <v>19393</v>
       </c>
       <c r="J5" t="n">
-        <v>5697</v>
+        <v>19948</v>
       </c>
       <c r="K5" t="n">
-        <v>3876</v>
+        <v>5387</v>
       </c>
       <c r="L5" t="n">
-        <v>5721</v>
+        <v>23526</v>
       </c>
       <c r="M5" t="n">
-        <v>3428</v>
+        <v>16071</v>
       </c>
       <c r="N5" t="n">
-        <v>1997</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115876</v>
+        <v>334653</v>
       </c>
       <c r="C6" t="n">
-        <v>39480</v>
+        <v>149781</v>
       </c>
       <c r="D6" t="n">
-        <v>980</v>
+        <v>2254</v>
       </c>
       <c r="E6" t="n">
-        <v>539</v>
+        <v>705</v>
       </c>
       <c r="F6" t="n">
-        <v>649</v>
+        <v>2259</v>
       </c>
       <c r="G6" t="n">
-        <v>36396</v>
+        <v>83428</v>
       </c>
       <c r="H6" t="n">
-        <v>249</v>
+        <v>53</v>
       </c>
       <c r="I6" t="n">
-        <v>12926</v>
+        <v>20189</v>
       </c>
       <c r="J6" t="n">
-        <v>6607</v>
+        <v>21718</v>
       </c>
       <c r="K6" t="n">
-        <v>2795</v>
+        <v>5323</v>
       </c>
       <c r="L6" t="n">
-        <v>7670</v>
+        <v>25283</v>
       </c>
       <c r="M6" t="n">
-        <v>5562</v>
+        <v>18773</v>
       </c>
       <c r="N6" t="n">
-        <v>2023</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136085</v>
+        <v>341424</v>
       </c>
       <c r="C7" t="n">
-        <v>48420</v>
+        <v>156339</v>
       </c>
       <c r="D7" t="n">
-        <v>717</v>
+        <v>2497</v>
       </c>
       <c r="E7" t="n">
-        <v>650</v>
+        <v>748</v>
       </c>
       <c r="F7" t="n">
-        <v>965</v>
+        <v>2083</v>
       </c>
       <c r="G7" t="n">
-        <v>40155</v>
+        <v>78631</v>
       </c>
       <c r="H7" t="n">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="I7" t="n">
-        <v>13397</v>
+        <v>21240</v>
       </c>
       <c r="J7" t="n">
-        <v>9191</v>
+        <v>24555</v>
       </c>
       <c r="K7" t="n">
-        <v>3583</v>
+        <v>4651</v>
       </c>
       <c r="L7" t="n">
-        <v>9667</v>
+        <v>24975</v>
       </c>
       <c r="M7" t="n">
-        <v>6934</v>
+        <v>20144</v>
       </c>
       <c r="N7" t="n">
-        <v>2246</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159362</v>
+        <v>354066</v>
       </c>
       <c r="C8" t="n">
-        <v>61538</v>
+        <v>165826</v>
       </c>
       <c r="D8" t="n">
-        <v>708</v>
+        <v>1770</v>
       </c>
       <c r="E8" t="n">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="F8" t="n">
-        <v>1564</v>
+        <v>2138</v>
       </c>
       <c r="G8" t="n">
-        <v>44214</v>
+        <v>78469</v>
       </c>
       <c r="H8" t="n">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="I8" t="n">
-        <v>13402</v>
+        <v>22993</v>
       </c>
       <c r="J8" t="n">
-        <v>10224</v>
+        <v>25131</v>
       </c>
       <c r="K8" t="n">
-        <v>3117</v>
+        <v>5016</v>
       </c>
       <c r="L8" t="n">
-        <v>11781</v>
+        <v>25663</v>
       </c>
       <c r="M8" t="n">
-        <v>9709</v>
+        <v>20184</v>
       </c>
       <c r="N8" t="n">
-        <v>2184</v>
+        <v>6012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>182500</v>
+        <v>375730</v>
       </c>
       <c r="C9" t="n">
-        <v>73698</v>
+        <v>176542</v>
       </c>
       <c r="D9" t="n">
-        <v>1260</v>
+        <v>1494</v>
       </c>
       <c r="E9" t="n">
-        <v>1090</v>
+        <v>724</v>
       </c>
       <c r="F9" t="n">
-        <v>1674</v>
+        <v>2093</v>
       </c>
       <c r="G9" t="n">
-        <v>51035</v>
+        <v>86674</v>
       </c>
       <c r="H9" t="n">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="I9" t="n">
-        <v>14325</v>
+        <v>22989</v>
       </c>
       <c r="J9" t="n">
-        <v>8786</v>
+        <v>24435</v>
       </c>
       <c r="K9" t="n">
-        <v>3464</v>
+        <v>7103</v>
       </c>
       <c r="L9" t="n">
-        <v>12578</v>
+        <v>25438</v>
       </c>
       <c r="M9" t="n">
-        <v>12040</v>
+        <v>20768</v>
       </c>
       <c r="N9" t="n">
-        <v>2449</v>
+        <v>7302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>198011</v>
+        <v>403883</v>
       </c>
       <c r="C10" t="n">
-        <v>81695</v>
+        <v>189531</v>
       </c>
       <c r="D10" t="n">
-        <v>839</v>
+        <v>1555</v>
       </c>
       <c r="E10" t="n">
-        <v>963</v>
+        <v>725</v>
       </c>
       <c r="F10" t="n">
-        <v>1299</v>
+        <v>2643</v>
       </c>
       <c r="G10" t="n">
-        <v>55518</v>
+        <v>93200</v>
       </c>
       <c r="H10" t="n">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="I10" t="n">
-        <v>15379</v>
+        <v>23538</v>
       </c>
       <c r="J10" t="n">
-        <v>10121</v>
+        <v>29005</v>
       </c>
       <c r="K10" t="n">
-        <v>3299</v>
+        <v>7090</v>
       </c>
       <c r="L10" t="n">
-        <v>14418</v>
+        <v>26954</v>
       </c>
       <c r="M10" t="n">
-        <v>11872</v>
+        <v>20911</v>
       </c>
       <c r="N10" t="n">
-        <v>2524</v>
+        <v>8563</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>202273</v>
+        <v>399807.6872</v>
       </c>
       <c r="C11" t="n">
-        <v>85882</v>
+        <v>169257.2162</v>
       </c>
       <c r="D11" t="n">
-        <v>751</v>
+        <v>1943.0851</v>
       </c>
       <c r="E11" t="n">
-        <v>525</v>
+        <v>703.5667999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>886</v>
+        <v>3243.8912</v>
       </c>
       <c r="G11" t="n">
-        <v>52548</v>
+        <v>92282.427</v>
       </c>
       <c r="H11" t="n">
-        <v>59</v>
+        <v>220.7661</v>
       </c>
       <c r="I11" t="n">
-        <v>18690</v>
+        <v>28933.5536</v>
       </c>
       <c r="J11" t="n">
-        <v>10572</v>
+        <v>39892.5479</v>
       </c>
       <c r="K11" t="n">
-        <v>3606</v>
+        <v>6414.9621</v>
       </c>
       <c r="L11" t="n">
-        <v>15221</v>
+        <v>26573.2231</v>
       </c>
       <c r="M11" t="n">
-        <v>11112</v>
+        <v>21062.3646</v>
       </c>
       <c r="N11" t="n">
-        <v>2423</v>
+        <v>9280.083500000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>237778</v>
+        <v>407022.6931</v>
       </c>
       <c r="C12" t="n">
-        <v>100025</v>
+        <v>145219.7396</v>
       </c>
       <c r="D12" t="n">
-        <v>1344</v>
+        <v>2132.5788</v>
       </c>
       <c r="E12" t="n">
-        <v>671</v>
+        <v>993.3651</v>
       </c>
       <c r="F12" t="n">
-        <v>849</v>
+        <v>4240.2116</v>
       </c>
       <c r="G12" t="n">
-        <v>63856</v>
+        <v>90368.5952</v>
       </c>
       <c r="H12" t="n">
-        <v>67</v>
+        <v>229.2876</v>
       </c>
       <c r="I12" t="n">
-        <v>20958</v>
+        <v>31643.3737</v>
       </c>
       <c r="J12" t="n">
-        <v>11555</v>
+        <v>45732.1647</v>
       </c>
       <c r="K12" t="n">
-        <v>4036</v>
+        <v>6266.9162</v>
       </c>
       <c r="L12" t="n">
-        <v>18621</v>
+        <v>25711.5672</v>
       </c>
       <c r="M12" t="n">
-        <v>12689</v>
+        <v>22459.9951</v>
       </c>
       <c r="N12" t="n">
-        <v>3109</v>
+        <v>9806.6525</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>270162</v>
+        <v>443570.1674</v>
       </c>
       <c r="C13" t="n">
-        <v>115524</v>
+        <v>153484.135</v>
       </c>
       <c r="D13" t="n">
-        <v>1281</v>
+        <v>2530.2047</v>
       </c>
       <c r="E13" t="n">
-        <v>661</v>
+        <v>1487.0325</v>
       </c>
       <c r="F13" t="n">
-        <v>1242</v>
+        <v>4319.9658</v>
       </c>
       <c r="G13" t="n">
-        <v>75729</v>
+        <v>98882.06600000001</v>
       </c>
       <c r="H13" t="n">
-        <v>73</v>
+        <v>392.5547</v>
       </c>
       <c r="I13" t="n">
-        <v>21200</v>
+        <v>31495.1248</v>
       </c>
       <c r="J13" t="n">
-        <v>13724</v>
+        <v>56070.3142</v>
       </c>
       <c r="K13" t="n">
-        <v>4258</v>
+        <v>6709.168</v>
       </c>
       <c r="L13" t="n">
-        <v>19508</v>
+        <v>27711.8961</v>
       </c>
       <c r="M13" t="n">
-        <v>13647</v>
+        <v>23658.8054</v>
       </c>
       <c r="N13" t="n">
-        <v>3314</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>284076</v>
-      </c>
-      <c r="C14" t="n">
-        <v>126752</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1486</v>
-      </c>
-      <c r="E14" t="n">
-        <v>651</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1182</v>
-      </c>
-      <c r="G14" t="n">
-        <v>74300</v>
-      </c>
-      <c r="H14" t="n">
-        <v>57</v>
-      </c>
-      <c r="I14" t="n">
-        <v>19652</v>
-      </c>
-      <c r="J14" t="n">
-        <v>16375</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4710</v>
-      </c>
-      <c r="L14" t="n">
-        <v>21176</v>
-      </c>
-      <c r="M14" t="n">
-        <v>14428</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3307</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>311987</v>
-      </c>
-      <c r="C15" t="n">
-        <v>138312</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1561</v>
-      </c>
-      <c r="E15" t="n">
-        <v>642</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1571</v>
-      </c>
-      <c r="G15" t="n">
-        <v>81341</v>
-      </c>
-      <c r="H15" t="n">
-        <v>58</v>
-      </c>
-      <c r="I15" t="n">
-        <v>19393</v>
-      </c>
-      <c r="J15" t="n">
-        <v>19948</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5387</v>
-      </c>
-      <c r="L15" t="n">
-        <v>23526</v>
-      </c>
-      <c r="M15" t="n">
-        <v>16071</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4177</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>334653</v>
-      </c>
-      <c r="C16" t="n">
-        <v>149781</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2254</v>
-      </c>
-      <c r="E16" t="n">
-        <v>705</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2259</v>
-      </c>
-      <c r="G16" t="n">
-        <v>83428</v>
-      </c>
-      <c r="H16" t="n">
-        <v>53</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20189</v>
-      </c>
-      <c r="J16" t="n">
-        <v>21718</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5323</v>
-      </c>
-      <c r="L16" t="n">
-        <v>25283</v>
-      </c>
-      <c r="M16" t="n">
-        <v>18773</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4887</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>341424</v>
-      </c>
-      <c r="C17" t="n">
-        <v>156339</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2497</v>
-      </c>
-      <c r="E17" t="n">
-        <v>748</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2083</v>
-      </c>
-      <c r="G17" t="n">
-        <v>78631</v>
-      </c>
-      <c r="H17" t="n">
-        <v>108</v>
-      </c>
-      <c r="I17" t="n">
-        <v>21240</v>
-      </c>
-      <c r="J17" t="n">
-        <v>24555</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4651</v>
-      </c>
-      <c r="L17" t="n">
-        <v>24975</v>
-      </c>
-      <c r="M17" t="n">
-        <v>20144</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5453</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>354066</v>
-      </c>
-      <c r="C18" t="n">
-        <v>165826</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1770</v>
-      </c>
-      <c r="E18" t="n">
-        <v>715</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2138</v>
-      </c>
-      <c r="G18" t="n">
-        <v>78469</v>
-      </c>
-      <c r="H18" t="n">
-        <v>149</v>
-      </c>
-      <c r="I18" t="n">
-        <v>22993</v>
-      </c>
-      <c r="J18" t="n">
-        <v>25131</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5016</v>
-      </c>
-      <c r="L18" t="n">
-        <v>25663</v>
-      </c>
-      <c r="M18" t="n">
-        <v>20184</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6012</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>375730</v>
-      </c>
-      <c r="C19" t="n">
-        <v>176542</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1494</v>
-      </c>
-      <c r="E19" t="n">
-        <v>724</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2093</v>
-      </c>
-      <c r="G19" t="n">
-        <v>86674</v>
-      </c>
-      <c r="H19" t="n">
-        <v>168</v>
-      </c>
-      <c r="I19" t="n">
-        <v>22989</v>
-      </c>
-      <c r="J19" t="n">
-        <v>24435</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7103</v>
-      </c>
-      <c r="L19" t="n">
-        <v>25438</v>
-      </c>
-      <c r="M19" t="n">
-        <v>20768</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7302</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>403883</v>
-      </c>
-      <c r="C20" t="n">
-        <v>189531</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1555</v>
-      </c>
-      <c r="E20" t="n">
-        <v>725</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2643</v>
-      </c>
-      <c r="G20" t="n">
-        <v>93200</v>
-      </c>
-      <c r="H20" t="n">
-        <v>168</v>
-      </c>
-      <c r="I20" t="n">
-        <v>23538</v>
-      </c>
-      <c r="J20" t="n">
-        <v>29005</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7090</v>
-      </c>
-      <c r="L20" t="n">
-        <v>26954</v>
-      </c>
-      <c r="M20" t="n">
-        <v>20911</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8563</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>399807.6872</v>
-      </c>
-      <c r="C21" t="n">
-        <v>169257.2162</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1943.0851</v>
-      </c>
-      <c r="E21" t="n">
-        <v>703.5667999999999</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3243.8912</v>
-      </c>
-      <c r="G21" t="n">
-        <v>92282.427</v>
-      </c>
-      <c r="H21" t="n">
-        <v>220.7661</v>
-      </c>
-      <c r="I21" t="n">
-        <v>28933.5536</v>
-      </c>
-      <c r="J21" t="n">
-        <v>39892.5479</v>
-      </c>
-      <c r="K21" t="n">
-        <v>6414.9621</v>
-      </c>
-      <c r="L21" t="n">
-        <v>26573.2231</v>
-      </c>
-      <c r="M21" t="n">
-        <v>21062.3646</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9280.083500000001</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>407022.6931</v>
-      </c>
-      <c r="C22" t="n">
-        <v>145219.7396</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2132.5788</v>
-      </c>
-      <c r="E22" t="n">
-        <v>993.3651</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4240.2116</v>
-      </c>
-      <c r="G22" t="n">
-        <v>90368.5952</v>
-      </c>
-      <c r="H22" t="n">
-        <v>229.2876</v>
-      </c>
-      <c r="I22" t="n">
-        <v>31643.3737</v>
-      </c>
-      <c r="J22" t="n">
-        <v>45732.1647</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6266.9162</v>
-      </c>
-      <c r="L22" t="n">
-        <v>25711.5672</v>
-      </c>
-      <c r="M22" t="n">
-        <v>22459.9951</v>
-      </c>
-      <c r="N22" t="n">
-        <v>9806.6525</v>
+        <v>10383.9409</v>
       </c>
     </row>
   </sheetData>
